--- a/devnet_sbx_testbed.xlsx
+++ b/devnet_sbx_testbed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudia/Dropbox (Indigo Wire Networks)/scripts/python/2020/pyats_intro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1737A2BF-CBF3-C74A-BFB9-3188A5FF5ABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB58EA-76B5-4649-86DA-F56E2D8C48FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="9440" windowWidth="28040" windowHeight="17440" xr2:uid="{B1CD2092-96F8-D541-AB83-A29EF0B7CE1F}"/>
+    <workbookView xWindow="9440" yWindow="9280" windowWidth="28040" windowHeight="17440" xr2:uid="{B1CD2092-96F8-D541-AB83-A29EF0B7CE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>nxos</t>
   </si>
   <si>
-    <t>iosze</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>C1sco12345</t>
+  </si>
+  <si>
+    <t>iosxe</t>
   </si>
 </sst>
 </file>
@@ -441,7 +441,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -480,10 +480,10 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -503,10 +503,10 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -515,7 +515,7 @@
         <v>8181</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/devnet_sbx_testbed.xlsx
+++ b/devnet_sbx_testbed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claudia/Dropbox (Indigo Wire Networks)/scripts/python/2020/pyats_intro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDB58EA-76B5-4649-86DA-F56E2D8C48FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA673185-3A3C-0441-8E37-F28732172CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9440" yWindow="9280" windowWidth="28040" windowHeight="17440" xr2:uid="{B1CD2092-96F8-D541-AB83-A29EF0B7CE1F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>hostname</t>
   </si>
@@ -77,9 +77,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>root</t>
-  </si>
-  <si>
     <t>Admin_1234!</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>iosxe</t>
+  </si>
+  <si>
+    <t>enable_password</t>
+  </si>
+  <si>
+    <t>developer</t>
   </si>
 </sst>
 </file>
@@ -438,18 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA83DC6-4140-AE45-8972-D8D91982BEB0}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -463,16 +467,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -483,19 +490,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8181</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -503,19 +513,22 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>8181</v>
+      </c>
+      <c r="H3" t="s">
         <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
-        <v>8181</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
